--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Período da música (2min)</t>
   </si>
   <si>
-    <t xml:space="preserve">Beatriz-Gomes-Pereira</t>
+    <t xml:space="preserve">Dummy-1</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/Wa5B22KAkEk?si=C89_GNk0NGCITd32</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">1:45 - 3:45</t>
   </si>
   <si>
-    <t xml:space="preserve">Bernardo-Meireles-dos-Anjos-da-Silva</t>
+    <t xml:space="preserve">Dummy-2</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/bKDdT_nyP54?si=k2IXmNN2-GEZK5HB</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">0:37 - 2:37</t>
   </si>
   <si>
-    <t xml:space="preserve">Clara-Cruz-de-Carvalho</t>
+    <t xml:space="preserve">Dummy-3</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/7Gbg6Z70J7E</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">1:42 - 3:19</t>
   </si>
   <si>
-    <t xml:space="preserve">Beatriz-Pittaro-Neves</t>
+    <t xml:space="preserve">Dummy-4</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/34ZmKbe5oG4?si=-QmXOiPwwzLGBbo-</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">0:00 - 2:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Erick-Mitrano-Neves-Moura-Vargas</t>
+    <t xml:space="preserve">Dummy-5</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/iW2FUY3N-n0?si=tzrY7eQk_Dlh71RK</t>
@@ -82,13 +82,13 @@
     <t xml:space="preserve">2:20 - 4:20</t>
   </si>
   <si>
-    <t xml:space="preserve">Geraldo-Antônio-Pereira-Filho</t>
+    <t xml:space="preserve">Dummy-6</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/5TlZeem3FU8?feature=shared</t>
   </si>
   <si>
-    <t xml:space="preserve">Giovani-Maia-Milan</t>
+    <t xml:space="preserve">Dummy-7</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/393C3pr2ioY?feature=shared</t>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -137,35 +137,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -175,6 +146,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -263,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,51 +282,39 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -530,7 +503,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,11 +511,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.04"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>8160007026</v>
+        <v>8451207933</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -581,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>8161111028</v>
+        <v>8902347116</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
@@ -598,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>8161616209</v>
+        <v>8665801294</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
@@ -615,15 +588,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>8161717301</v>
-      </c>
-      <c r="C5" s="14" t="s">
+        <v>8100923458</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -632,15 +605,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>8222305844</v>
-      </c>
-      <c r="C6" s="14" t="s">
+        <v>8773465021</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -649,15 +622,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>8222304903</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>8309854762</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -665,13 +638,13 @@
       <c r="A8" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="18" t="n">
-        <v>8162020077</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="13" t="n">
+        <v>8525119080</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
